--- a/DataTest/Dược/TC_01.xlsx
+++ b/DataTest/Dược/TC_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HIS api automation\DataTest\Dược\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0FDEAE-1C6F-40AE-85A8-F1042D7AEEC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D246456-1C15-4696-82DB-C142A3E64DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="61">
   <si>
     <t>TxVisitId</t>
   </si>
@@ -79,13 +79,148 @@
   </si>
   <si>
     <t>NT.</t>
+  </si>
+  <si>
+    <t>TestCaseId</t>
+  </si>
+  <si>
+    <t>DLS_1</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>InvSource</t>
+  </si>
+  <si>
+    <t>InvStatus</t>
+  </si>
+  <si>
+    <t>PtAddress</t>
+  </si>
+  <si>
+    <t>5/49A Ntl, Phường Suối Tre, Thành phố Long Khánh, Tỉnh Đồng Nai</t>
+  </si>
+  <si>
+    <t>PPU</t>
+  </si>
+  <si>
+    <t>Dosage</t>
+  </si>
+  <si>
+    <t>DoctorName</t>
+  </si>
+  <si>
+    <t>Quách Bảo Hưng</t>
+  </si>
+  <si>
+    <t>"- Sáng: 1 Viên- Trưa: 1 Viên- Chiều: 1 Viên- Tối: 1 Viên"</t>
+  </si>
+  <si>
+    <t>DiscAmt</t>
+  </si>
+  <si>
+    <t>InsBenefitRatio</t>
+  </si>
+  <si>
+    <t>InsBenefitType</t>
+  </si>
+  <si>
+    <t>PayType</t>
+  </si>
+  <si>
+    <t>ItemType</t>
+  </si>
+  <si>
+    <t>DLS_2</t>
+  </si>
+  <si>
+    <t>CancelNotes</t>
+  </si>
+  <si>
+    <t>Quách Bảo Hưng test huỷ thuốc</t>
+  </si>
+  <si>
+    <t>DLS_3</t>
+  </si>
+  <si>
+    <t>DLS_5</t>
+  </si>
+  <si>
+    <t>itemId</t>
+  </si>
+  <si>
+    <t>RqtQty</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Test đề nghị 1</t>
+  </si>
+  <si>
+    <t>Test đề nghị</t>
+  </si>
+  <si>
+    <t>Test đề nghị 2</t>
+  </si>
+  <si>
+    <t>StmNo</t>
+  </si>
+  <si>
+    <t>CreateById</t>
+  </si>
+  <si>
+    <t>StoreId</t>
+  </si>
+  <si>
+    <t>InvSource.1</t>
+  </si>
+  <si>
+    <t>Type.1</t>
+  </si>
+  <si>
+    <t>DN</t>
+  </si>
+  <si>
+    <t>VatPerc</t>
+  </si>
+  <si>
+    <t>LotId</t>
+  </si>
+  <si>
+    <t>ItemSource</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Bảo Hưng test xuất chuyển kho</t>
+  </si>
+  <si>
+    <t>RefStoreId</t>
+  </si>
+  <si>
+    <t>RevocationVoucherIns</t>
+  </si>
+  <si>
+    <t>VisitEntryId</t>
+  </si>
+  <si>
+    <t>DLS_6</t>
+  </si>
+  <si>
+    <t>Bảo Hưng test thuốc hư hại trong quá trình vận chuyển</t>
+  </si>
+  <si>
+    <t>DLS_7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,16 +228,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -125,13 +286,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,122 +645,1543 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:BC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="42" customWidth="1"/>
-    <col min="38" max="38" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="15" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="33" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="36.88671875" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="9.140625" style="2"/>
+    <col min="21" max="21" width="60.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" style="2"/>
+    <col min="23" max="23" width="51" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="29" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="4.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="15" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="33" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:55" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="R1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE1" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK1" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM1" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN1" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO1" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP1" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU1" s="9"/>
+      <c r="AV1" s="10"/>
+      <c r="AW1" s="10"/>
+      <c r="AX1" s="10"/>
+      <c r="AY1" s="10"/>
+      <c r="AZ1" s="10"/>
+      <c r="BA1" s="10"/>
+      <c r="BB1" s="10"/>
+      <c r="BC1" s="10"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B2">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="3">
         <v>72</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="3">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="3">
+        <v>0</v>
+      </c>
+      <c r="T2" s="3">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V2" s="3">
+        <v>1</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="4"/>
+      <c r="AP2" s="4"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
+    </row>
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="3">
+        <v>31</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="3">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="4"/>
+      <c r="AP3" s="4"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+    </row>
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="3">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="4">
+        <v>2155</v>
+      </c>
+      <c r="AF4" s="11">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="11">
+        <v>10</v>
+      </c>
+      <c r="AH4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK4" s="3">
+        <v>3839</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>28</v>
+      </c>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="4"/>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
+    </row>
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="3">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="4">
+        <v>11422</v>
+      </c>
+      <c r="AF5" s="11">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="11">
+        <v>9</v>
+      </c>
+      <c r="AH5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK5" s="3">
+        <v>3839</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>28</v>
+      </c>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="4"/>
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1"/>
+      <c r="AS5" s="1"/>
+      <c r="AT5" s="1"/>
+      <c r="AU5" s="1"/>
+    </row>
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="3">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="4">
+        <v>11370</v>
+      </c>
+      <c r="AF6" s="11">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="11">
+        <v>7</v>
+      </c>
+      <c r="AH6" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK6" s="3">
+        <v>3839</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>28</v>
+      </c>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="4"/>
+      <c r="AO6" s="4"/>
+      <c r="AP6" s="4"/>
+      <c r="AQ6" s="1"/>
+      <c r="AR6" s="1"/>
+      <c r="AS6" s="1"/>
+      <c r="AT6" s="1"/>
+      <c r="AU6" s="1"/>
+    </row>
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1">
+        <v>70</v>
+      </c>
+      <c r="D7" s="1">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1">
+        <v>1</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1">
+        <v>1</v>
+      </c>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1">
+        <v>11993</v>
+      </c>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1">
+        <v>3839</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>28</v>
+      </c>
+      <c r="AM7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="11">
+        <v>15096</v>
+      </c>
+      <c r="AO7" s="11">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="11">
+        <v>4</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>26</v>
+      </c>
+      <c r="AR7" s="1"/>
+      <c r="AS7" s="1"/>
+      <c r="AT7" s="1"/>
+      <c r="AU7" s="1"/>
+    </row>
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1">
+        <v>70</v>
+      </c>
+      <c r="D8" s="1">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1">
+        <v>1</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1">
+        <v>1</v>
+      </c>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1">
+        <v>11391</v>
+      </c>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1">
+        <v>3839</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>28</v>
+      </c>
+      <c r="AM8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="11">
+        <v>17135</v>
+      </c>
+      <c r="AO8" s="11">
+        <v>1</v>
+      </c>
+      <c r="AP8" s="11">
+        <v>4</v>
+      </c>
+      <c r="AQ8" s="1">
+        <v>26</v>
+      </c>
+      <c r="AR8" s="1"/>
+      <c r="AS8" s="1"/>
+      <c r="AT8" s="1"/>
+      <c r="AU8" s="1"/>
+    </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1">
+        <v>70</v>
+      </c>
+      <c r="D9" s="1">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1">
+        <v>1</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1">
+        <v>1</v>
+      </c>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1">
+        <v>11749</v>
+      </c>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1">
+        <v>3839</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>28</v>
+      </c>
+      <c r="AM9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="11">
+        <v>15918</v>
+      </c>
+      <c r="AO9" s="11">
+        <v>1</v>
+      </c>
+      <c r="AP9" s="11">
+        <v>4</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>26</v>
+      </c>
+      <c r="AR9" s="1"/>
+      <c r="AS9" s="1"/>
+      <c r="AT9" s="1"/>
+      <c r="AU9" s="1"/>
+    </row>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1">
+        <v>42</v>
+      </c>
+      <c r="D10" s="1">
+        <v>20</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1">
+        <v>1</v>
+      </c>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1">
+        <v>8675</v>
+      </c>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1">
+        <v>3839</v>
+      </c>
+      <c r="AL10" s="1">
+        <v>36</v>
+      </c>
+      <c r="AM10" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="11">
+        <v>19642</v>
+      </c>
+      <c r="AO10" s="11">
+        <v>32</v>
+      </c>
+      <c r="AP10" s="11">
+        <v>2</v>
+      </c>
+      <c r="AQ10" s="1"/>
+      <c r="AR10" s="1"/>
+      <c r="AS10" s="1"/>
+      <c r="AT10" s="1"/>
+      <c r="AU10" s="1"/>
+    </row>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1">
+        <v>42</v>
+      </c>
+      <c r="D11" s="1">
+        <v>20</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0</v>
+      </c>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1">
+        <v>1</v>
+      </c>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1">
+        <v>3795</v>
+      </c>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1">
+        <v>3839</v>
+      </c>
+      <c r="AL11" s="1">
+        <v>36</v>
+      </c>
+      <c r="AM11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="11">
+        <v>21339</v>
+      </c>
+      <c r="AO11" s="11">
+        <v>32</v>
+      </c>
+      <c r="AP11" s="11">
+        <v>2</v>
+      </c>
+      <c r="AQ11" s="1"/>
+      <c r="AR11" s="1"/>
+      <c r="AS11" s="1"/>
+      <c r="AT11" s="1"/>
+      <c r="AU11" s="1"/>
+    </row>
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1">
+        <v>42</v>
+      </c>
+      <c r="D12" s="1">
+        <v>20</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1">
+        <v>1</v>
+      </c>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1">
+        <v>4473</v>
+      </c>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1">
+        <v>3839</v>
+      </c>
+      <c r="AL12" s="1">
+        <v>36</v>
+      </c>
+      <c r="AM12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="11">
+        <v>21494</v>
+      </c>
+      <c r="AO12" s="11">
+        <v>32</v>
+      </c>
+      <c r="AP12" s="11">
+        <v>2</v>
+      </c>
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="1"/>
+      <c r="AS12" s="1"/>
+      <c r="AT12" s="1"/>
+      <c r="AU12" s="1"/>
+    </row>
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1">
+        <v>44</v>
+      </c>
+      <c r="D13" s="1">
+        <v>20</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1">
+        <v>1</v>
+      </c>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1">
+        <v>8675</v>
+      </c>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1">
+        <v>3839</v>
+      </c>
+      <c r="AL13" s="1">
+        <v>36</v>
+      </c>
+      <c r="AM13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="11">
+        <v>19642</v>
+      </c>
+      <c r="AO13" s="11">
+        <v>32</v>
+      </c>
+      <c r="AP13" s="11">
+        <v>2</v>
+      </c>
+      <c r="AQ13" s="1"/>
+      <c r="AR13" s="1"/>
+      <c r="AS13" s="1"/>
+      <c r="AT13" s="1"/>
+      <c r="AU13" s="1"/>
+    </row>
+    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1">
+        <v>44</v>
+      </c>
+      <c r="D14" s="1">
+        <v>20</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
+        <v>0</v>
+      </c>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1">
+        <v>1</v>
+      </c>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1">
+        <v>3795</v>
+      </c>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1">
+        <v>3839</v>
+      </c>
+      <c r="AL14" s="1">
+        <v>36</v>
+      </c>
+      <c r="AM14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="11">
+        <v>21339</v>
+      </c>
+      <c r="AO14" s="11">
+        <v>32</v>
+      </c>
+      <c r="AP14" s="11">
+        <v>2</v>
+      </c>
+      <c r="AQ14" s="1"/>
+      <c r="AR14" s="1"/>
+      <c r="AS14" s="1"/>
+      <c r="AT14" s="1"/>
+      <c r="AU14" s="1"/>
+    </row>
+    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1">
+        <v>44</v>
+      </c>
+      <c r="D15" s="1">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1">
+        <v>0</v>
+      </c>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1">
+        <v>1</v>
+      </c>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1">
+        <v>4473</v>
+      </c>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1">
+        <v>3839</v>
+      </c>
+      <c r="AL15" s="1">
+        <v>36</v>
+      </c>
+      <c r="AM15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="11">
+        <v>21494</v>
+      </c>
+      <c r="AO15" s="11">
+        <v>32</v>
+      </c>
+      <c r="AP15" s="11">
+        <v>2</v>
+      </c>
+      <c r="AQ15" s="1"/>
+      <c r="AR15" s="1"/>
+      <c r="AS15" s="1"/>
+      <c r="AT15" s="1"/>
+      <c r="AU15" s="1"/>
+    </row>
+    <row r="16" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3">
+        <v>40</v>
+      </c>
+      <c r="D16" s="3">
+        <v>20</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3">
+        <v>0</v>
+      </c>
+      <c r="T16" s="3">
+        <v>0</v>
+      </c>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3">
+        <v>1</v>
+      </c>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3">
+        <v>8675</v>
+      </c>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="3">
+        <v>3839</v>
+      </c>
+      <c r="AL16" s="3">
+        <v>36</v>
+      </c>
+      <c r="AM16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="4">
+        <v>19642</v>
+      </c>
+      <c r="AO16" s="4">
+        <v>32</v>
+      </c>
+      <c r="AP16" s="4">
+        <v>2</v>
+      </c>
+      <c r="AQ16" s="3"/>
+      <c r="AR16" s="3"/>
+      <c r="AS16" s="3"/>
+      <c r="AT16" s="3"/>
+      <c r="AU16" s="3"/>
+    </row>
+    <row r="17" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3">
+        <v>40</v>
+      </c>
+      <c r="D17" s="3">
+        <v>20</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3">
+        <v>1</v>
+      </c>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3">
+        <v>3795</v>
+      </c>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3">
+        <v>3839</v>
+      </c>
+      <c r="AL17" s="3">
+        <v>36</v>
+      </c>
+      <c r="AM17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="4">
+        <v>21339</v>
+      </c>
+      <c r="AO17" s="4">
+        <v>32</v>
+      </c>
+      <c r="AP17" s="4">
+        <v>2</v>
+      </c>
+      <c r="AQ17" s="3"/>
+      <c r="AR17" s="3"/>
+      <c r="AS17" s="3"/>
+      <c r="AT17" s="3"/>
+      <c r="AU17" s="3"/>
+    </row>
+    <row r="18" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3">
+        <v>40</v>
+      </c>
+      <c r="D18" s="3">
+        <v>20</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3">
+        <v>1</v>
+      </c>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3">
+        <v>4473</v>
+      </c>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="3"/>
+      <c r="AJ18" s="3"/>
+      <c r="AK18" s="3">
+        <v>3839</v>
+      </c>
+      <c r="AL18" s="3">
+        <v>36</v>
+      </c>
+      <c r="AM18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="4">
+        <v>21494</v>
+      </c>
+      <c r="AO18" s="4">
+        <v>32</v>
+      </c>
+      <c r="AP18" s="4">
+        <v>2</v>
+      </c>
+      <c r="AQ18" s="3"/>
+      <c r="AR18" s="3"/>
+      <c r="AS18" s="3"/>
+      <c r="AT18" s="3"/>
+      <c r="AU18" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>